--- a/tables/taco_matching_dict.xlsx
+++ b/tables/taco_matching_dict.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TACO category</t>
+          <t>New category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>New category</t>
+          <t>Taco category</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aerosol</t>
+          <t>Aluminium foil</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>E-Waste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aluminium blister pack</t>
+          <t>Battery</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aluminium foil</t>
+          <t>Aluminium blister pack</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>E-Waste</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Battery</t>
+          <t>Carded blister pack</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Broken glass</t>
+          <t>Other plastic bottle</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carded blister pack</t>
+          <t>Clear plastic bottle</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Glass</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cigarette</t>
+          <t>Glass bottle</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Clear plastic bottle</t>
+          <t>Plastic bottle cap</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Corrugated carton</t>
+          <t>Metal bottle cap</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Glass</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Crisp packet</t>
+          <t>Broken glass</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Disposable food container</t>
+          <t>Food Can</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Disposable plastic cup</t>
+          <t>Aerosol</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Drink carton</t>
+          <t>Toilet tube</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Egg carton</t>
+          <t>Other carton</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Foam cup</t>
+          <t>Egg carton</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Foam food container</t>
+          <t>Drink carton</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Food Can</t>
+          <t>Corrugated carton</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Organic</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Food waste</t>
+          <t>Meal carton</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Garbage bag</t>
+          <t>Pizza box</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Glass bottle</t>
+          <t>Paper cup</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Glass cup</t>
+          <t>Disposable plastic cup</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glass</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Glass jar</t>
+          <t>Foam cup</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Magazine paper</t>
+          <t>Glass cup</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Meal carton</t>
+          <t>Other plastic cup</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Organic</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Metal bottle cap</t>
+          <t>Food waste</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Glass</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Metal lid</t>
+          <t>Glass jar</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal paper</t>
+          <t>Plastic lid</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Other carton</t>
+          <t>Metal lid</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Other plastic bottle</t>
+          <t>Magazine paper</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Other plastic container</t>
+          <t>Tissues</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Other plastic cup</t>
+          <t>Wrapping paper</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Other plastic wrapper</t>
+          <t>Normal paper</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Paper</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Paper cup</t>
+          <t>Plastified paper bag</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Paper straw</t>
+          <t>Plastic film</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pizza box</t>
+          <t>Six pack rings</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Plastic bottle cap</t>
+          <t>Garbage bag</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Plastic film</t>
+          <t>Other plastic wrapper</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Plastic glooves</t>
+          <t>Single-use carrier bag</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Plastic lid</t>
+          <t>Polypropylene bag</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Plastic straw</t>
+          <t>Crisp packet</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Plastic utensils</t>
+          <t>Spread tub</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Plastified paper bag</t>
+          <t>Tupperware</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Polypropylene bag</t>
+          <t>Disposable food container</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pop tab</t>
+          <t>Foam food container</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rope &amp; strings</t>
+          <t>Other plastic container</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Scrap metal</t>
+          <t>Plastic glooves</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shoe</t>
+          <t>Plastic utensils</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Single-use carrier bag</t>
+          <t>Pop tab</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Six pack rings</t>
+          <t>Rope &amp; strings</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Metal</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Spread tub</t>
+          <t>Scrap metal</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Squeezable tube</t>
+          <t>Shoe</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Styrofoam piece</t>
+          <t>Squeezable tube</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Non-recyclable</t>
+          <t>Plastic</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tissues</t>
+          <t>Plastic straw</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Toilet tube</t>
+          <t>Paper straw</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tupperware</t>
+          <t>Styrofoam piece</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Paper</t>
+          <t>Non-recyclable</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Wrapping paper</t>
+          <t>Cigarette</t>
         </is>
       </c>
     </row>

--- a/tables/taco_matching_dict.xlsx
+++ b/tables/taco_matching_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Taco category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>New category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Taco category</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New category IDs</t>
         </is>
       </c>
     </row>
@@ -451,13 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Aluminium foil</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Aluminium foil</t>
-        </is>
+      <c r="D2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -466,13 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Battery</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>E-Waste</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Battery</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -481,13 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Aluminium blister pack</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Aluminium blister pack</t>
-        </is>
+      <c r="D4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -496,13 +510,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Carded blister pack</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Carded blister pack</t>
-        </is>
+      <c r="D5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Other plastic bottle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Other plastic bottle</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +546,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Clear plastic bottle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Clear plastic bottle</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -541,13 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Glass bottle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Glass</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Glass bottle</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -556,13 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic bottle cap</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Plastic bottle cap</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -571,13 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Metal bottle cap</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Metal bottle cap</t>
-        </is>
+      <c r="D10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Broken glass</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Glass</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Broken glass</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -601,13 +636,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Food Can</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Food Can</t>
-        </is>
+      <c r="D12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +654,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Aerosol</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Aerosol</t>
-        </is>
+      <c r="D13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +672,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Drink can</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Drink can</t>
-        </is>
+      <c r="D14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -646,13 +690,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Toilet tube</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Toilet tube</t>
-        </is>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -661,13 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Other carton</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Other carton</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -676,13 +726,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Egg carton</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Egg carton</t>
-        </is>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -691,13 +744,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Drink carton</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Drink carton</t>
-        </is>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -706,13 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Corrugated carton</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Corrugated carton</t>
-        </is>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -721,13 +780,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Meal carton</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Meal carton</t>
-        </is>
+      <c r="D20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -736,13 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Pizza box</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Pizza box</t>
-        </is>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -751,13 +816,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Paper cup</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Paper cup</t>
-        </is>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -766,13 +834,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Disposable plastic cup</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Disposable plastic cup</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -781,13 +852,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Foam cup</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Foam cup</t>
-        </is>
+      <c r="D24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -796,13 +870,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Glass cup</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Glass cup</t>
-        </is>
+      <c r="D25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -811,13 +888,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Other plastic cup</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Other plastic cup</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -826,13 +906,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Food waste</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Organic</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Food waste</t>
-        </is>
+      <c r="D27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -841,13 +924,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Glass jar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Glass</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Glass jar</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -856,13 +942,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic lid</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Plastic lid</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -871,13 +960,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Metal lid</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Metal lid</t>
-        </is>
+      <c r="D30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -886,13 +978,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Other plastic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Other plastic</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -901,13 +996,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Magazine paper</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Magazine paper</t>
-        </is>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -916,13 +1014,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Tissues</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Tissues</t>
-        </is>
+      <c r="D33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -931,13 +1032,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Wrapping paper</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Wrapping paper</t>
-        </is>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -946,13 +1050,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Normal paper</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Normal paper</t>
-        </is>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -961,13 +1068,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>Paper bag</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Paper bag</t>
-        </is>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -976,13 +1086,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Plastified paper bag</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Plastified paper bag</t>
-        </is>
+      <c r="D37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -991,13 +1104,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic film</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Plastic film</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1006,13 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Six pack rings</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Six pack rings</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1021,13 +1140,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Garbage bag</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Garbage bag</t>
-        </is>
+      <c r="D40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1036,13 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Other plastic wrapper</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Other plastic wrapper</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1051,13 +1176,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Single-use carrier bag</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Single-use carrier bag</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1066,13 +1194,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Polypropylene bag</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Polypropylene bag</t>
-        </is>
+      <c r="D43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1081,13 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Crisp packet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Crisp packet</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1096,13 +1230,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Spread tub</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Spread tub</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1111,13 +1248,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Tupperware</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tupperware</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1126,13 +1266,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Disposable food container</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Disposable food container</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1141,13 +1284,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Foam food container</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Foam food container</t>
-        </is>
+      <c r="D48" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1156,13 +1302,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Other plastic container</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Other plastic container</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1171,13 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic glooves</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Plastic glooves</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1186,13 +1338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic utensils</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Plastic utensils</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1201,13 +1356,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Pop tab</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Pop tab</t>
-        </is>
+      <c r="D52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1216,13 +1374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>Rope &amp; strings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Rope &amp; strings</t>
-        </is>
+      <c r="D53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1231,13 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Scrap metal</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Metal</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Scrap metal</t>
-        </is>
+      <c r="D54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1246,13 +1410,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>Shoe</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Shoe</t>
-        </is>
+      <c r="D55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1261,13 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>Squeezable tube</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Squeezable tube</t>
-        </is>
+      <c r="D56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1276,13 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Plastic</t>
+          <t>Plastic straw</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Plastic straw</t>
-        </is>
+          <t>Plastic</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1291,13 +1464,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Paper straw</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>Paper</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Paper straw</t>
-        </is>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1306,43 +1482,34 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>Styrofoam piece</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Styrofoam piece</t>
-        </is>
+      <c r="D59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>!!! Remove !!!</t>
+          <t>Cigarette</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Unlabeled litter</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
           <t>Non-recyclable</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Cigarette</t>
-        </is>
+      <c r="D60" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
